--- a/RA Bart Strategy.xlsx
+++ b/RA Bart Strategy.xlsx
@@ -447,13 +447,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -510,6 +523,1221 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>11213</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Raynus, Joseph</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>11214</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>11215</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Crittenden, William</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11216</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>11217</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Spector, Bert</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>12593</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>McCullough, Robert</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>13131</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>McCullough, Robert</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>13456</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Spector, Bert</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>13602</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Courtney, Hugh</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>13985</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11585</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>19</v>
+      </c>
+      <c r="K12" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>11586</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Goldberg, Robert</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>22</v>
+      </c>
+      <c r="K13" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>11930</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>11931</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>11932</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>11933</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>11934</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>20</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>11935</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>20</v>
+      </c>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>12116</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>12168</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>13466</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>13467</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>13468</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>13469</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D26" t="n">
+        <v>15</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>17498</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Strategic Planning for the Future</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>6318</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>17038</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Alessandri, Todd</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>10</v>
+      </c>
+      <c r="K27" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Strategic Planning for the Future</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>6318</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Fall 2019</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>17035</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Alessandri, Todd</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -523,13 +1751,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -586,6 +1827,861 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Strategic Analysis and Decision Making</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4301</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>35780</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Courtney, Hugh</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>31</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>30481</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>McCullough, Robert</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>30479</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ivy, Julia</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>30478</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cuervo-Cazurra, Alvaro</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>30477</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lamin, Anna</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>30476</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ivy, Julia</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>30475</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Lamin, Anna</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>33392</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Alessandri, Todd</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>32181</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Courtney, Hugh</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>32568</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>McCullough, Robert</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>33015</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Spector, Bert</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>33225</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Spector, Bert</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>33421</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lamin, Anna</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>33451</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Ivy, Julia</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>33485</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>31359</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>31362</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Joyce, Theodore</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Workforce Metrics and Analytics</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6210</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>32846</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Huselid, Mark</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>14</v>
+      </c>
+      <c r="K19" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Strategic Management for Healthcare Organizations</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6220</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2020</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>33381</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Young, Gary</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>23</v>
+      </c>
+      <c r="K20" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -599,13 +2695,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -662,6 +2771,1266 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>11107</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Enright, Michael</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>11108</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lamin, Anna</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>11109</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Spector, Bert</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11110</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lamin, Anna</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>11111</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>McCullough, Robert</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>12260</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>12698</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Lamin, Anna</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>12965</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Spector, Bert</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>13093</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>13402</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>14</v>
+      </c>
+      <c r="K11" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11376</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>11377</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Masiello, Diletta</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>22</v>
+      </c>
+      <c r="K13" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>11670</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>11671</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>11672</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>20</v>
+      </c>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>11673</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>11674</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>20</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>11675</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>20</v>
+      </c>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>11840</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>11882</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>12975</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>12976</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>12977</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>12978</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>20</v>
+      </c>
+      <c r="K25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Workforce Metrics and Analytics</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6210</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>18288</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Huselid, Mark</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Strategic Planning for the Future</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>6318</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>15333</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Alessandri, Todd</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Strategic Planning for the Future</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>6318</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>15330</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Alessandri, Todd</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Directed Study</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>7976</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Fall 2020</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>19871</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>No campus, no room needed</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -675,13 +4044,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -738,6 +4120,906 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Strategic Analysis and Decision Making</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4301</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>34374</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Courtney, Hugh</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>30438</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sen, Shubhro</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>30436</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>30435</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cuervo-Cazurra, Alvaro</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>30434</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ivy, Julia</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>30433</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lamin, Anna</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>30432</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sen, Shubhro</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>32831</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Alessandri, Todd</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>31861</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Spector, Bert</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>32184</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Joyce, Theodore</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>32529</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Spector, Bert</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>32698</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>McCullough, Robert</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>32857</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Enright, Michael</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>32880</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>32911</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>McCullough, Robert</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>36313</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Ivy, Julia</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>38753</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sarathy, Ravi</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>31183</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Enright, Michael</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>31186</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Ivy, Julia</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Strategic Management for Healthcare Organizations</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6220</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spring 2021</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>32821</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Young, Gary</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -758,6 +5040,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="58" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2042,13 +6337,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2105,6 +6413,951 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30659</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Livanis, Grigorios</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>30657</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Gold, Natalia</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>30656</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Goldberg, Robert</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>30655</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Karim, Samina</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>30654</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lefevre, Duane</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>30653</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Livanis, Grigorios</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>37455</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Gold, Natalia</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>33792</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Gold, Natalia</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>34685</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Karim, Samina</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>35988</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Huselid, Mark</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>36888</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Livanis, Grigorios</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>37704</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Goldberg, Robert</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>37775</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Suarez, Fernando</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>External Case Competition Challenge</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4516</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>32725</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Kinnunen, Raymond</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>32</v>
+      </c>
+      <c r="K15" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>32045</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>20</v>
+      </c>
+      <c r="K16" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>32048</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Strategic Decisions for Growth</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6208</v>
+      </c>
+      <c r="D18" t="n">
+        <v>26</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>32092</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Alessandri, Todd</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Strategic Decisions for Growth</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6208</v>
+      </c>
+      <c r="D19" t="n">
+        <v>36</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>32093</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Alessandri, Todd</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Workforce Metrics and Analytics</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6210</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>35425</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Huselid, Mark</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>20</v>
+      </c>
+      <c r="K20" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Strategic Management for Healthcare Organizations</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6220</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>37422</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Jindra, Elisabeth</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Directed Study</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7976</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Spring 2016</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>37954</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Kinnunen, Raymond</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>No campus, no room needed</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2125,6 +7378,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3409,13 +8675,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3472,6 +8751,951 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30633</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Gold, Natalia</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>30631</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Crittenden, William</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>30630</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lamin, Anna</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>30629</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cuervo-Cazurra, Alvaro</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>30628</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Spector, Bert</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>30627</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lamin, Anna</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>36283</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Goldberg, Robert</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>33486</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ivy, Julia</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>34263</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Livanis, Grigorios</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>35142</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Goldberg, Robert</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>35767</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Lefevre, Duane</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>36419</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Livanis, Grigorios</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>36524</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ivy, Julia</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>36592</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Gold, Natalia</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>External Case Competition Challenge</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4516</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>32563</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Kinnunen, Raymond</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>31</v>
+      </c>
+      <c r="K16" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>31932</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>17</v>
+      </c>
+      <c r="K17" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>31935</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>12</v>
+      </c>
+      <c r="K18" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Strategic Decisions for Growth</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6208</v>
+      </c>
+      <c r="D19" t="n">
+        <v>26</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>31977</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Alessandri, Todd</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Strategic Decisions for Growth</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6208</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>31978</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Alessandri, Todd</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Workforce Metrics and Analytics</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6210</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>34768</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Huselid, Mark</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Strategic Management for Healthcare Organizations</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6220</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Spring 2017</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>36253</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Young, Gary</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>28</v>
+      </c>
+      <c r="K22" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3492,6 +9716,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4776,13 +11013,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4839,6 +11089,861 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30560</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lefevre, Duane</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>30558</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Borgida, Monica</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>30557</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ivy, Julia</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>30556</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lamin, Anna</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>30555</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Livanis, Grigorios</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>30554</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lamin, Anna</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>34525</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Livanis, Grigorios</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>32789</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Spector, Bert</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>33314</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Borgida, Monica</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>33912</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Spector, Bert</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>34248</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Lefevre, Duane</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>34630</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ivy, Julia</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>34679</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Raynus, Joseph</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>31671</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>19</v>
+      </c>
+      <c r="K15" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>31674</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>12</v>
+      </c>
+      <c r="K16" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Strategic Decisions for Growth</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6208</v>
+      </c>
+      <c r="D17" t="n">
+        <v>26</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>31713</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Alessandri, Todd</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Strategic Decisions for Growth</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6208</v>
+      </c>
+      <c r="D18" t="n">
+        <v>36</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>31714</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Alessandri, Todd</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Workforce Metrics and Analytics</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6210</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>33670</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Huselid, Mark</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>18</v>
+      </c>
+      <c r="K19" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Strategic Management for Healthcare Organizations</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6220</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2018</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>34510</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Staines, John</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>30</v>
+      </c>
+      <c r="K20" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4859,6 +11964,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -6188,13 +13306,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -6251,6 +13382,906 @@
         <is>
           <t>Status - total seats</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30527</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lefevre, Duane</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>30525</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Spector, Bert</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>30524</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cuervo-Cazurra, Alvaro</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>30523</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lamin, Anna</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>30522</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Goldberg, Robert</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>30521</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lamin, Anna</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>33879</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Goldberg, Robert</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>32480</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Spector, Bert</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>32922</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lefevre, Duane</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>33418</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Crittenden, William</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>33679</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ivy, Julia</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>33915</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Lamin, Anna</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>33950</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Alessandri, Todd</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>33991</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Strategy in Action</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4501</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>38253</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Courtney, Hugh</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>31536</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>13</v>
+      </c>
+      <c r="K17" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Strategic Decision Making in a Changing Environment</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6200</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>31539</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Giglio, Joseph</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>14</v>
+      </c>
+      <c r="K18" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Workforce Metrics and Analytics</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6210</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>33221</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Huselid, Mark</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>26</v>
+      </c>
+      <c r="K19" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Strategic Management for Healthcare Organizations</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6220</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>33866</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Young, Gary</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>23</v>
+      </c>
+      <c r="K20" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Strategic Management for Healthcare Organizations</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6220</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spring 2019</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>38381</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Johnson, Craig</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>31</v>
+      </c>
+      <c r="K21" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
